--- a/GameDesign/HMcsv설명/InvadeTable.xlsx
+++ b/GameDesign/HMcsv설명/InvadeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\csv1설명\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2279DD96-A2C6-4CF1-8770-909D16BC48BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63106173-05BE-49EA-8362-CBCACF99F3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2904" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InvadeTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>82104</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{60D8EA57-1C6D-4187-B65C-3572A01BE2BC}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{60D8EA57-1C6D-4187-B65C-3572A01BE2BC}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{613A3E72-BEEE-4F36-88AC-0CB902EE9788}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{613A3E72-BEEE-4F36-88AC-0CB902EE9788}">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{5F484C07-B52C-4AF9-8A73-515524DA2863}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{5F484C07-B52C-4AF9-8A73-515524DA2863}">
       <text>
         <r>
           <rPr>
@@ -651,7 +651,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{96D70867-D749-437E-9A0F-131E2E26014E}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{96D70867-D749-437E-9A0F-131E2E26014E}">
       <text>
         <r>
           <rPr>
@@ -861,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{EDC3F375-0DCC-4400-BCB3-91AA6266BC04}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{EDC3F375-0DCC-4400-BCB3-91AA6266BC04}">
       <text>
         <r>
           <rPr>
@@ -1076,21 +1076,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>InvadeID</t>
   </si>
   <si>
-    <t>InvadeStringID</t>
-  </si>
-  <si>
     <t>StealObject</t>
   </si>
   <si>
     <t>Invade_S1_D1</t>
-  </si>
-  <si>
-    <t>Invade_a1</t>
   </si>
   <si>
     <t>Invade_S1_D2</t>
@@ -1126,10 +1120,6 @@
   </si>
   <si>
     <t>침략 코드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>침략 안내 코드</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -2261,126 +2251,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.19921875" customWidth="1"/>
-    <col min="5" max="5" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2388,465 +2371,435 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
         <v>20</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>26</v>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1">
+        <v>70</v>
+      </c>
+      <c r="N5" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>20</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1">
+      <c r="M6" s="1">
+        <v>70</v>
+      </c>
+      <c r="N6" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H7" s="1">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K7" s="1">
         <v>20</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1">
         <v>70</v>
       </c>
-      <c r="O4" s="1">
+      <c r="N7" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1">
+      <c r="M8" s="1">
+        <v>70</v>
+      </c>
+      <c r="N8" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E9" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H9" s="1">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1">
         <v>10</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K9" s="1">
         <v>20</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1">
         <v>70</v>
       </c>
-      <c r="O5" s="1">
+      <c r="N9" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1">
+      <c r="M10" s="1">
+        <v>70</v>
+      </c>
+      <c r="N10" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E11" s="1">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="1">
+      <c r="H11" s="1">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1">
         <v>10</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K11" s="1">
         <v>20</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1">
         <v>70</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N11" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="M12" s="1">
         <v>70</v>
       </c>
-      <c r="O7" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10</v>
-      </c>
-      <c r="L8" s="1">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="1">
-        <v>70</v>
-      </c>
-      <c r="O8" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="1">
-        <v>10</v>
-      </c>
-      <c r="L9" s="1">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="1">
-        <v>70</v>
-      </c>
-      <c r="O9" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1">
-        <v>20</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="1">
-        <v>70</v>
-      </c>
-      <c r="O10" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1">
-        <v>20</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="1">
-        <v>70</v>
-      </c>
-      <c r="O11" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="1">
-        <v>10</v>
-      </c>
-      <c r="L12" s="1">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="N12" s="1">
-        <v>70</v>
-      </c>
-      <c r="O12" s="1">
         <v>80</v>
       </c>
     </row>
